--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -5,15 +5,18 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\работы\122\Пирогов Егор\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\122 б\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13515" windowHeight="8310"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$D$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -21,32 +24,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>not b</t>
-  </si>
-  <si>
-    <t>a^ not b</t>
-  </si>
-  <si>
-    <t>a^ not b = c</t>
-  </si>
-  <si>
-    <t>c=a</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -363,251 +340,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>42</v>
+      </c>
+      <c r="B1" t="str">
+        <f>IF(A1,DEC2BIN(A1))</f>
+        <v>101010</v>
+      </c>
+      <c r="C1">
+        <f ca="1">SUMPRODUCT(--MID(B1,ROW(INDIRECT("B1:B"&amp;LEN(B1))),1))</f>
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <f>IF(B2=1,0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <f>IF(AND(A2=1,D2=1),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <f>IF(AND(E2=1,C2=0),0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <f>IF(F2=A2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D9" si="0">IF(B3=1,0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E9" si="1">IF(AND(A3=1,D3=1),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F9" si="2">IF(AND(E3=1,C3=0),0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G9" si="3">IF(F3=A3,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="3"/>
-        <v>1</v>
+      <c r="D1" t="str">
+        <f ca="1">IF(ISEVEN(C1),REPLACE(B1,1,2,10),REPLACE(B1,1,2,11))</f>
+        <v>111010</v>
+      </c>
+      <c r="E1">
+        <f ca="1">BIN2DEC(D1)</f>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
